--- a/MassageTid arbetstidsfördelning.xlsx
+++ b/MassageTid arbetstidsfördelning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\systemvetenskap\IS B eTjänster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\IS-B-projekt\IS-B-projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CB4E39-F742-49F8-A49A-E1E67CFA7581}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873ED8C9-EEE1-409A-8E43-62BB783A79AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>Programmering</t>
   </si>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -988,6 +988,21 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1081,33 +1096,72 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
+      <c r="B32">
+        <v>1.5</v>
+      </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1116,23 +1170,23 @@
       </c>
       <c r="B34">
         <f>SUM(B21:B32)</f>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="C34">
         <f>SUM(C21:C32)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <f>SUM(D21:D32)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <f>SUM(E21:E32)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <f>SUM(B34:E34)</f>
-        <v>0.5</v>
+        <v>16.5</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>16</v>
@@ -1234,9 +1288,7 @@
       <c r="A44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="4">
-        <v>6</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1300,10 +1352,6 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>SUM(B38:B49)</f>
-        <v>6</v>
-      </c>
       <c r="C51">
         <f>SUM(C38:C49)</f>
         <v>0</v>
@@ -1318,7 +1366,7 @@
       </c>
       <c r="F51">
         <f>SUM(B51:E51)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1686,7 +1734,7 @@
       </c>
       <c r="B77" s="4">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="12"/>
@@ -1702,7 +1750,7 @@
       </c>
       <c r="F77">
         <f t="shared" ref="F77" si="13">SUM(B77:E77)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -1742,19 +1790,19 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" ref="C79:D79" si="15">C12+C29+C46+C62</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -1764,23 +1812,23 @@
       </c>
       <c r="B80" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C80" s="4">
         <f t="shared" ref="C80:D80" si="16">C13+C30+C47+C63</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4"/>
     </row>
@@ -1790,7 +1838,7 @@
       </c>
       <c r="B81" s="4">
         <f>B15+B32+B48+B64</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C81" s="4">
         <f>C15+C32+C48+C64</f>
@@ -1806,7 +1854,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -1816,23 +1864,23 @@
       </c>
       <c r="B82">
         <f>SUM(B71:B81)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <f t="shared" ref="C82:D82" si="17">SUM(C71:C81)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D82">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E82">
         <f t="shared" ref="E82:F82" si="18">SUM(E71:E81)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F82">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>16</v>
